--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1129121.445757542</v>
+        <v>1172556.650529906</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>1786423.703430227</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7209112.293225665</v>
+        <v>7450414.610492228</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>299.4066182446819</v>
       </c>
       <c r="C2" t="n">
-        <v>208.4784617599081</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -826,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>38.90528114630926</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>186.810132212935</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -902,13 +904,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>153.9058664543658</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>7.299493710605256</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>58.20549866363039</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>67.03490995037038</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1184,10 +1186,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1196,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>132.6583802274085</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.87285498594032</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4.378995526348037</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1382,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>133.7682651318491</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>167.1780140496677</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348037</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1579,16 +1581,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>26.17457044251705</v>
+        <v>330.4778708711513</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>82.98375949801647</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2050,22 +2052,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>115.1055716303386</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2138,13 +2140,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>219.6035253819533</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>98.15366458399268</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2530,16 +2532,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>218.008057705788</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.0606729676881</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>149.5284402831839</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2773,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3199,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>207.6944592286903</v>
+        <v>181.5314079874484</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3430,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3481,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>67.16278375654387</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>114.0229165455007</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>124.2290557831222</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3721,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3743,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.040273586482394</v>
       </c>
       <c r="W41" t="n">
-        <v>151.5440623940404</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>75.25534642052881</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3986,10 +3988,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>148.1342484358052</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>391.1173886393603</v>
       </c>
     </row>
     <row r="45">
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>124.429452383991</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>45.44275720140884</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>731.6445158468521</v>
+        <v>2475.399670743779</v>
       </c>
       <c r="C2" t="n">
-        <v>521.0602110388641</v>
+        <v>2048.498940757079</v>
       </c>
       <c r="D2" t="n">
-        <v>501.8079942642684</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E2" t="n">
-        <v>75.83105441212597</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74727664193027</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>701.0259602492056</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
-        <v>1374.82761136252</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M2" t="n">
-        <v>2048.629262475834</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="N2" t="n">
-        <v>2048.629262475834</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="O2" t="n">
-        <v>2722.430913589148</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V2" t="n">
-        <v>2364.941498715398</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W2" t="n">
-        <v>1968.550149015745</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="X2" t="n">
-        <v>1556.830150183492</v>
+        <v>3183.167868308769</v>
       </c>
       <c r="Y2" t="n">
-        <v>1151.492880138382</v>
+        <v>2777.830598263659</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>333.5927505132859</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>433.5136365409612</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>1107.315287654275</v>
+        <v>526.9586330490793</v>
       </c>
       <c r="M3" t="n">
-        <v>1107.315287654275</v>
+        <v>526.9586330490793</v>
       </c>
       <c r="N3" t="n">
-        <v>1781.11693876759</v>
+        <v>526.9586330490793</v>
       </c>
       <c r="O3" t="n">
-        <v>1781.11693876759</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P3" t="n">
-        <v>1781.11693876759</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1137.62974079602</v>
+        <v>2099.06691384535</v>
       </c>
       <c r="C4" t="n">
-        <v>965.6571776749358</v>
+        <v>1927.094350724265</v>
       </c>
       <c r="D4" t="n">
-        <v>802.3404048017065</v>
+        <v>1763.777577851036</v>
       </c>
       <c r="E4" t="n">
-        <v>636.1321989545601</v>
+        <v>1597.56937200389</v>
       </c>
       <c r="F4" t="n">
-        <v>464.2704247291205</v>
+        <v>1558.271108219739</v>
       </c>
       <c r="G4" t="n">
-        <v>298.0134550233526</v>
+        <v>1558.271108219739</v>
       </c>
       <c r="H4" t="n">
-        <v>154.217186531507</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>1698.493769157889</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>2821.860396298596</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>3467.88773690026</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S4" t="n">
-        <v>2017.687984891219</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T4" t="n">
-        <v>1828.990881645831</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U4" t="n">
-        <v>1828.990881645831</v>
+        <v>3314.703418641326</v>
       </c>
       <c r="V4" t="n">
-        <v>1828.990881645831</v>
+        <v>3032.991951249355</v>
       </c>
       <c r="W4" t="n">
-        <v>1554.138477818344</v>
+        <v>2758.139547421868</v>
       </c>
       <c r="X4" t="n">
-        <v>1554.138477818344</v>
+        <v>2515.575650867673</v>
       </c>
       <c r="Y4" t="n">
-        <v>1327.795709508086</v>
+        <v>2289.232882557415</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.525280420256</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C5" t="n">
-        <v>1058.624550433556</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D5" t="n">
-        <v>635.3319296185562</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E5" t="n">
-        <v>479.8714584525301</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74727664193027</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>1090.853728201993</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L5" t="n">
-        <v>1090.853728201993</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M5" t="n">
-        <v>1764.655379315307</v>
+        <v>1742.452134990904</v>
       </c>
       <c r="N5" t="n">
-        <v>1764.655379315307</v>
+        <v>2632.186882108307</v>
       </c>
       <c r="O5" t="n">
-        <v>2048.629262475834</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>3016.472881311905</v>
       </c>
       <c r="W5" t="n">
-        <v>2722.430913589148</v>
+        <v>3016.472881311905</v>
       </c>
       <c r="X5" t="n">
-        <v>2310.710914756895</v>
+        <v>2604.752882479652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1905.373644711786</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L6" t="n">
-        <v>54.44861827178296</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="M6" t="n">
-        <v>54.44861827178296</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="N6" t="n">
-        <v>515.5329466256644</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="O6" t="n">
-        <v>1189.334597738979</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>695.0364208437705</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C7" t="n">
-        <v>523.0638577226865</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D7" t="n">
-        <v>523.0638577226865</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E7" t="n">
-        <v>523.0638577226865</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.452721225452</v>
+        <v>1970.599317363977</v>
       </c>
       <c r="W7" t="n">
-        <v>937.6003173979655</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X7" t="n">
-        <v>695.0364208437705</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y7" t="n">
-        <v>695.0364208437705</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>627.2772217199924</v>
+        <v>2106.256137959903</v>
       </c>
       <c r="C8" t="n">
-        <v>200.3764917332925</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D8" t="n">
-        <v>132.6644614803932</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E8" t="n">
-        <v>110.7279256686548</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F8" t="n">
-        <v>89.64414789845907</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G8" t="n">
-        <v>89.34548952831176</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M8" t="n">
-        <v>1402.051920498411</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N8" t="n">
-        <v>2075.853571611725</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>3412.020209703937</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3412.020209703937</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>2618.063619462288</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U8" t="n">
-        <v>2618.063619462288</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V8" t="n">
-        <v>2260.574204588538</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W8" t="n">
-        <v>1864.182854888885</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X8" t="n">
-        <v>1452.462856056632</v>
+        <v>2123.360964215735</v>
       </c>
       <c r="Y8" t="n">
-        <v>1047.125586011523</v>
+        <v>2122.064098211029</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="M9" t="n">
-        <v>728.2502693850971</v>
+        <v>1798.431312543129</v>
       </c>
       <c r="N9" t="n">
-        <v>1402.051920498411</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.9735969921587</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="C10" t="n">
-        <v>383.9735969921587</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="D10" t="n">
-        <v>220.6568241189294</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="E10" t="n">
-        <v>54.44861827178296</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="F10" t="n">
-        <v>54.44861827178296</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W10" t="n">
-        <v>937.6003173979655</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X10" t="n">
-        <v>695.0364208437705</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y10" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1755.743090736225</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C11" t="n">
-        <v>1328.842360749525</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D11" t="n">
-        <v>905.5497399345252</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E11" t="n">
-        <v>479.5728000823827</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F11" t="n">
-        <v>54.44861827178296</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L11" t="n">
-        <v>54.44861827178296</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2502693850971</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N11" t="n">
-        <v>1402.051920498411</v>
+        <v>3456.610306670528</v>
       </c>
       <c r="O11" t="n">
-        <v>2075.853571611725</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U11" t="n">
-        <v>2587.311453860008</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V11" t="n">
-        <v>2587.311453860008</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W11" t="n">
-        <v>2587.311453860008</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="X11" t="n">
-        <v>2175.591455027755</v>
+        <v>2346.397973076064</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.591455027755</v>
+        <v>2177.531292217814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M12" t="n">
-        <v>515.5329466256644</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>2017.687984891219</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>2017.687984891219</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V13" t="n">
-        <v>2017.687984891219</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>938.6150501954539</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C14" t="n">
-        <v>938.6150501954539</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D14" t="n">
-        <v>515.3224293804542</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E14" t="n">
-        <v>89.34548952831176</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F14" t="n">
-        <v>89.34548952831176</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G14" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>1402.051920498411</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M14" t="n">
-        <v>2075.853571611725</v>
+        <v>1540.788361361508</v>
       </c>
       <c r="N14" t="n">
-        <v>2722.430913589148</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>2397.138048506922</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>2138.783139103334</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V14" t="n">
-        <v>1781.293724229584</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="W14" t="n">
-        <v>1384.902374529931</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="X14" t="n">
-        <v>1358.463414486984</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y14" t="n">
-        <v>1358.463414486984</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.051920498411</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>2017.687984891219</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>4362.434577686964</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>1125.509546729146</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>953.5369836080615</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>790.2202107348322</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>624.0120048876857</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>452.1502306622461</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>285.8932609564783</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>1315.675515441211</v>
       </c>
     </row>
     <row r="20">
@@ -5750,46 +5752,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
@@ -5838,7 +5840,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2039.376393044857</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>2039.376393044857</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>810.671283034784</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>584.328514724526</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,19 +5977,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
@@ -6002,22 +6004,22 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4289.300056251596</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6066,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>4362.434577686964</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.4157547709034</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4157547709034</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>246.0989818976742</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>246.0989818976742</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
         <v>246.0989818976742</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>1064.78153311813</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6543,13 +6545,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6598,16 +6600,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G31" t="n">
         <v>345.8675501573982</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,19 +6645,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W31" t="n">
         <v>1844.556469506584</v>
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,34 +6703,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818557</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>775.6620294727279</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="X34" t="n">
-        <v>775.6620294727279</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>775.6620294727279</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6935,31 +6937,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -7017,22 +7019,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>540.252050633783</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>368.279487512699</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>368.279487512699</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1474.177088037789</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1199.324684210301</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>956.7607876561067</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>730.4180193458487</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818557</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>418.0715450187581</v>
+        <v>3723.256622122471</v>
       </c>
       <c r="C40" t="n">
-        <v>246.0989818976742</v>
+        <v>3551.284059001387</v>
       </c>
       <c r="D40" t="n">
-        <v>246.0989818976742</v>
+        <v>3387.967286128157</v>
       </c>
       <c r="E40" t="n">
-        <v>246.0989818976742</v>
+        <v>3221.759080281011</v>
       </c>
       <c r="F40" t="n">
-        <v>246.0989818976742</v>
+        <v>3049.897306055571</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S40" t="n">
-        <v>2157.23184608853</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T40" t="n">
-        <v>1913.89249831443</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U40" t="n">
-        <v>1633.708049814735</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V40" t="n">
-        <v>1351.996582422764</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W40" t="n">
-        <v>1077.144178595277</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="X40" t="n">
-        <v>834.5802820410818</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="Y40" t="n">
-        <v>608.2375137308238</v>
+        <v>3913.422590834536</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1332.450469921225</v>
+        <v>2510.296542000307</v>
       </c>
       <c r="C41" t="n">
-        <v>905.5497399345252</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D41" t="n">
-        <v>905.5497399345252</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E41" t="n">
-        <v>479.5728000823827</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K41" t="n">
-        <v>1090.853728201993</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L41" t="n">
-        <v>1090.853728201993</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M41" t="n">
-        <v>1764.655379315307</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N41" t="n">
-        <v>1764.655379315307</v>
+        <v>3456.610306670528</v>
       </c>
       <c r="O41" t="n">
-        <v>2438.457030428621</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V41" t="n">
-        <v>2722.430913589148</v>
+        <v>3335.482176336947</v>
       </c>
       <c r="W41" t="n">
-        <v>2569.356103090117</v>
+        <v>3335.482176336947</v>
       </c>
       <c r="X41" t="n">
-        <v>2157.636104257865</v>
+        <v>3335.482176336947</v>
       </c>
       <c r="Y41" t="n">
-        <v>1752.298834212755</v>
+        <v>2930.144906291837</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.334597738979</v>
+        <v>1233.329993739814</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>410.1272901696723</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U43" t="n">
-        <v>2234.861645684911</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.554778200025</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W43" t="n">
-        <v>1796.702374372538</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1755.743090736225</v>
+        <v>1752.407110407214</v>
       </c>
       <c r="C44" t="n">
-        <v>1328.842360749525</v>
+        <v>1325.506380420514</v>
       </c>
       <c r="D44" t="n">
-        <v>905.5497399345252</v>
+        <v>902.2137596055143</v>
       </c>
       <c r="E44" t="n">
-        <v>479.5728000823827</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>1090.853728201993</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>1764.655379315307</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M44" t="n">
-        <v>1764.655379315307</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="N44" t="n">
-        <v>2438.457030428621</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="O44" t="n">
-        <v>2438.457030428621</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="W44" t="n">
-        <v>2572.800359613587</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="X44" t="n">
-        <v>2161.080360781335</v>
+        <v>2567.323544031431</v>
       </c>
       <c r="Y44" t="n">
-        <v>1755.743090736225</v>
+        <v>2172.255474698744</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K45" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L45" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.334597738979</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.136248852293</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>1055.310311607333</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>883.3377484862492</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>720.0209756130199</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>553.8127697658734</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>381.9509955404339</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T46" t="n">
-        <v>2109.175330145526</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.990881645831</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="V46" t="n">
-        <v>1828.990881645831</v>
+        <v>1989.235349011339</v>
       </c>
       <c r="W46" t="n">
-        <v>1554.138477818344</v>
+        <v>1714.382945183852</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.138477818344</v>
+        <v>1471.819048629657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>1245.476280319399</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>688.8730270346301</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>709.7055120839691</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>123.3294217400761</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>703.1228151115166</v>
+        <v>482.1725369225717</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>103.4022957834533</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>324.2332655787787</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,19 +8300,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>487.0847740255431</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>220.8394800966024</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8535,16 +8537,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>104.326942738997</v>
       </c>
       <c r="O9" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>177.065262861573</v>
       </c>
       <c r="P11" t="n">
-        <v>571.9400154420696</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>488.8385263243295</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8927,25 +8929,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>798.4234811248743</v>
       </c>
       <c r="N14" t="n">
-        <v>690.388049074267</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O15" t="n">
-        <v>488.9136355342238</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>398.9108788555778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9252,7 +9254,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574439</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9413,7 +9415,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130248</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9650,7 +9652,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>238.1216346371742</v>
+        <v>238.1216346371733</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9714,31 +9716,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9887,7 +9889,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>866.431015736377</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9954,25 +9956,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10191,16 +10193,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>186.3697998820327</v>
       </c>
       <c r="M30" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,10 +10351,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>952.685833629606</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10667,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,19 +10907,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>177.065262861573</v>
       </c>
       <c r="P41" t="n">
-        <v>324.4176680329862</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>487.0847740255431</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>594.1174292159724</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>590.6660005002013</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>205.6738954250035</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
@@ -11373,22 +11375,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>213.6990712821115</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23309,13 +23311,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>122.0030951777027</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>234.1058832949909</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>381.4282284014132</v>
+        <v>77.12492797277895</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -23710,10 +23712,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>59.37454630891068</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>163.7887810877128</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>20.53473220669966</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>63.52994056050431</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>22.13019988286487</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.20363605725684</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>20.72439720668925</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>32.44379835996264</v>
+        <v>58.60684960120449</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,10 +25320,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25330,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>211.7315689615075</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>50.57148346320943</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>44.20464122293424</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,16 +25684,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>352.8742471385306</v>
       </c>
       <c r="W41" t="n">
-        <v>240.8833738086162</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>113.0089626044162</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -25919,19 +25921,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>244.2931877668514</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>10.16650870529827</v>
       </c>
     </row>
     <row r="45">
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>116.476501912368</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>233.4515955166426</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>693972.8616277465</v>
+        <v>695691.5136992786</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>693972.8616277465</v>
+        <v>695691.5136992786</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693972.8616277465</v>
+        <v>695691.5136992786</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>452867.7068484185</v>
+        <v>533755.5509994595</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>452867.7068484185</v>
+        <v>533755.5509994595</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674701.8370844848</v>
+        <v>674701.8370844845</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674701.8370844848</v>
+        <v>674701.8370844846</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674701.8370844848</v>
+        <v>674701.8370844845</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674701.8370844846</v>
+        <v>674701.8370844848</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>452867.7068484186</v>
+        <v>533755.5509994593</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>452867.7068484186</v>
+        <v>533755.5509994596</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334904.5341064186</v>
+        <v>334904.5341064188</v>
       </c>
       <c r="C2" t="n">
         <v>334904.5341064188</v>
@@ -26320,10 +26322,10 @@
         <v>334904.5341064188</v>
       </c>
       <c r="E2" t="n">
-        <v>216916.905171854</v>
+        <v>255659.2757639539</v>
       </c>
       <c r="F2" t="n">
-        <v>216916.9051718539</v>
+        <v>255659.2757639541</v>
       </c>
       <c r="G2" t="n">
         <v>323167.4818040323</v>
@@ -26335,25 +26337,25 @@
         <v>323167.4818040322</v>
       </c>
       <c r="J2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="K2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="L2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040321</v>
       </c>
       <c r="M2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040321</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040321</v>
       </c>
       <c r="O2" t="n">
-        <v>216916.9051718539</v>
+        <v>255659.275763954</v>
       </c>
       <c r="P2" t="n">
-        <v>216916.905171854</v>
+        <v>255659.2757639539</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127239.0340695812</v>
+        <v>90603.64080726329</v>
       </c>
       <c r="C4" t="n">
-        <v>127239.0340695812</v>
+        <v>90603.64080726329</v>
       </c>
       <c r="D4" t="n">
-        <v>127239.0340695812</v>
+        <v>90603.64080726331</v>
       </c>
       <c r="E4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="F4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792743</v>
@@ -26448,16 +26450,16 @@
         <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="P4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95430.35361340163</v>
+        <v>-145151.4039563632</v>
       </c>
       <c r="C6" t="n">
-        <v>132656.9501502826</v>
+        <v>156030.997718612</v>
       </c>
       <c r="D6" t="n">
-        <v>132656.9501502826</v>
+        <v>156030.997718612</v>
       </c>
       <c r="E6" t="n">
-        <v>165415.9715117271</v>
+        <v>189075.2252140144</v>
       </c>
       <c r="F6" t="n">
-        <v>165415.971511727</v>
+        <v>189075.2252140146</v>
       </c>
       <c r="G6" t="n">
-        <v>66350.12514748918</v>
+        <v>126131.9661760555</v>
       </c>
       <c r="H6" t="n">
         <v>230301.2459576752</v>
       </c>
       <c r="I6" t="n">
+        <v>230301.2459576751</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-4843.964319886232</v>
+      </c>
+      <c r="K6" t="n">
+        <v>230301.2459576751</v>
+      </c>
+      <c r="L6" t="n">
         <v>230301.245957675</v>
       </c>
-      <c r="J6" t="n">
-        <v>52224.31746889539</v>
-      </c>
-      <c r="K6" t="n">
-        <v>230301.2459576752</v>
-      </c>
-      <c r="L6" t="n">
-        <v>230301.2459576752</v>
-      </c>
       <c r="M6" t="n">
-        <v>230301.2459576752</v>
+        <v>230301.245957675</v>
       </c>
       <c r="N6" t="n">
-        <v>230301.2459576752</v>
+        <v>230301.245957675</v>
       </c>
       <c r="O6" t="n">
-        <v>165415.971511727</v>
+        <v>189075.2252140145</v>
       </c>
       <c r="P6" t="n">
-        <v>165415.9715117271</v>
+        <v>189075.2252140144</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876012</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876012</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>116.2432624039329</v>
       </c>
       <c r="C2" t="n">
-        <v>214.1532609269247</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27436,10 +27438,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>131.2378753368759</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>54.095822083424</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>267.8113039992552</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27667,13 +27669,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>393.9844036340533</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>111.9376578195548</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,76 +27852,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>352.0247846564793</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>274.9444186165217</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>400</v>
-      </c>
-      <c r="H8" t="n">
-        <v>294.8896947407055</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>218.7163152458132</v>
-      </c>
-      <c r="U8" t="n">
-        <v>255.7713603095518</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.3914540390047</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>653.1084262398208</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>672.1301502737379</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>100.9301879067428</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>680.607728397287</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>65.9710328840215</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>286.8423062227546</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>184.7148054920043</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>82.98391452545532</v>
       </c>
       <c r="O9" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>139.6743035055489</v>
       </c>
       <c r="P11" t="n">
-        <v>534.3646536318383</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7417458120015</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>760.9922182254426</v>
       </c>
       <c r="N14" t="n">
-        <v>653.1084262398209</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O15" t="n">
-        <v>465.7417458120016</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>361.4796159561459</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439022</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36133,7 +36135,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570007</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>200.7306752811501</v>
+        <v>200.7306752811492</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36607,7 +36609,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>829.040056380353</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="M30" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>914.3737911969831</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>139.6743035055489</v>
       </c>
       <c r="P41" t="n">
-        <v>286.8423062227549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7417458120015</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>570.9455394937502</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>553.3863776657553</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>168.0985336147722</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>191.2998374487782</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1172556.650529906</v>
+        <v>1171581.447442359</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786423.703430227</v>
+        <v>1786423.703430226</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7450414.610492228</v>
+        <v>7450414.610492229</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>299.4066182446819</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>239.8663333785753</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>38.90528114630926</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>47.3255698806609</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -898,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -907,7 +907,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>218.629512857633</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.299493710605256</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>25.13775189891262</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1116,7 +1116,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1138,10 +1138,10 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>146.7727518370992</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1198,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>132.6583802274085</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526348037</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1384,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>96.48026774827555</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1432,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>167.1780140496677</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348037</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1612,7 +1612,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>238.6111454484793</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>330.4778708711513</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>82.98375949801647</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2140,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>219.6035253819533</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>218.008057705788</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5284402831839</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>218.7757544134943</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>181.5314079874484</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3319,7 +3319,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>124.229055783122</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3666,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0229165455007</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3723,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.040273586482394</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>305.4739080496876</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.25534642052881</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3982,13 +3982,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>199.0333317977401</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4039,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>391.1173886393603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>45.44275720140884</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2475.399670743779</v>
+        <v>1521.212338739424</v>
       </c>
       <c r="C2" t="n">
-        <v>2048.498940757079</v>
+        <v>1094.311608752724</v>
       </c>
       <c r="D2" t="n">
-        <v>1625.206319942079</v>
+        <v>852.0223831177998</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.229380089937</v>
+        <v>426.0454432656574</v>
       </c>
       <c r="F2" t="n">
-        <v>774.1051982793369</v>
+        <v>404.9616654954617</v>
       </c>
       <c r="G2" t="n">
-        <v>369.7661358687856</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
         <v>71.89775734282044</v>
@@ -4336,22 +4336,22 @@
         <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
+        <v>1150.009524135215</v>
+      </c>
+      <c r="M2" t="n">
         <v>2039.744271252618</v>
       </c>
-      <c r="M2" t="n">
-        <v>2929.479018370021</v>
-      </c>
       <c r="N2" t="n">
-        <v>2929.479018370021</v>
+        <v>2176.101402604123</v>
       </c>
       <c r="O2" t="n">
-        <v>2929.479018370021</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P2" t="n">
-        <v>3594.887867141022</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q2" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R2" t="n">
         <v>3594.887867141022</v>
@@ -4360,22 +4360,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>3594.887867141022</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U2" t="n">
-        <v>3594.887867141022</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V2" t="n">
-        <v>3594.887867141022</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W2" t="n">
-        <v>3594.887867141022</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="X2" t="n">
-        <v>3183.167868308769</v>
+        <v>2346.397973076064</v>
       </c>
       <c r="Y2" t="n">
-        <v>2777.830598263659</v>
+        <v>1941.060703030954</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>526.9586330490793</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M3" t="n">
-        <v>526.9586330490793</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N3" t="n">
-        <v>526.9586330490793</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="O3" t="n">
-        <v>1416.439911060551</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="P3" t="n">
         <v>1416.439911060551</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2099.06691384535</v>
+        <v>988.8706740199108</v>
       </c>
       <c r="C4" t="n">
-        <v>1927.094350724265</v>
+        <v>816.8981108988268</v>
       </c>
       <c r="D4" t="n">
-        <v>1763.777577851036</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="E4" t="n">
-        <v>1597.56937200389</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F4" t="n">
-        <v>1558.271108219739</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G4" t="n">
-        <v>1558.271108219739</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H4" t="n">
-        <v>1414.474839727893</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I4" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>1471.966167952051</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>1698.493769157889</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>2053.183090452309</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>2444.36888542256</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>2821.860396298596</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>3177.288524978359</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>3467.88773690026</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T4" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U4" t="n">
-        <v>3314.703418641326</v>
+        <v>2204.507178815887</v>
       </c>
       <c r="V4" t="n">
-        <v>3032.991951249355</v>
+        <v>1922.795711423916</v>
       </c>
       <c r="W4" t="n">
-        <v>2758.139547421868</v>
+        <v>1647.943307596429</v>
       </c>
       <c r="X4" t="n">
-        <v>2515.575650867673</v>
+        <v>1405.379411042234</v>
       </c>
       <c r="Y4" t="n">
-        <v>2289.232882557415</v>
+        <v>1179.036642731976</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2177.531292217814</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="C5" t="n">
-        <v>1750.630562231114</v>
+        <v>1581.24114345243</v>
       </c>
       <c r="D5" t="n">
-        <v>1327.337941416114</v>
+        <v>1157.94852263743</v>
       </c>
       <c r="E5" t="n">
-        <v>901.3610015639716</v>
+        <v>731.9715827852875</v>
       </c>
       <c r="F5" t="n">
-        <v>476.2368197533718</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G5" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H5" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L5" t="n">
-        <v>1677.140812435722</v>
+        <v>1423.232026479605</v>
       </c>
       <c r="M5" t="n">
-        <v>1742.452134990904</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="N5" t="n">
-        <v>2632.186882108307</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="O5" t="n">
-        <v>3477.331532259119</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P5" t="n">
-        <v>3477.331532259119</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q5" t="n">
         <v>3477.331532259119</v>
@@ -4597,22 +4597,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>3373.962296185655</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U5" t="n">
-        <v>3373.962296185655</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V5" t="n">
-        <v>3016.472881311905</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W5" t="n">
-        <v>3016.472881311905</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X5" t="n">
-        <v>2604.752882479652</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y5" t="n">
-        <v>2597.379656509343</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>71.89775734282044</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L6" t="n">
-        <v>908.6965654257266</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M6" t="n">
-        <v>908.6965654257266</v>
+        <v>662.38268391116</v>
       </c>
       <c r="N6" t="n">
-        <v>908.6965654257266</v>
+        <v>662.38268391116</v>
       </c>
       <c r="O6" t="n">
-        <v>1164.387670884832</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="P6" t="n">
-        <v>1880.58538792333</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q6" t="n">
         <v>1880.58538792333</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1155.078879867057</v>
+        <v>1036.674279959972</v>
       </c>
       <c r="C7" t="n">
-        <v>983.1063167459732</v>
+        <v>864.7017168388879</v>
       </c>
       <c r="D7" t="n">
-        <v>819.7895438727439</v>
+        <v>701.3849439656586</v>
       </c>
       <c r="E7" t="n">
-        <v>653.5813380255975</v>
+        <v>535.1767381185122</v>
       </c>
       <c r="F7" t="n">
-        <v>481.7195638001579</v>
+        <v>363.3149638930726</v>
       </c>
       <c r="G7" t="n">
-        <v>315.4625940943901</v>
+        <v>197.0579941873047</v>
       </c>
       <c r="H7" t="n">
         <v>171.6663256025445</v>
@@ -4764,13 +4764,13 @@
         <v>1970.599317363977</v>
       </c>
       <c r="W7" t="n">
-        <v>1814.151513443576</v>
+        <v>1695.74691353649</v>
       </c>
       <c r="X7" t="n">
-        <v>1571.587616889381</v>
+        <v>1453.183016982296</v>
       </c>
       <c r="Y7" t="n">
-        <v>1345.244848579123</v>
+        <v>1226.840248672038</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2106.256137959903</v>
+        <v>1424.494098953316</v>
       </c>
       <c r="C8" t="n">
-        <v>2083.395812013608</v>
+        <v>1401.63377300702</v>
       </c>
       <c r="D8" t="n">
-        <v>1660.103191198608</v>
+        <v>1382.381556232424</v>
       </c>
       <c r="E8" t="n">
         <v>1234.126251346466</v>
@@ -4804,28 +4804,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K8" t="n">
-        <v>787.4060653183195</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L8" t="n">
-        <v>1677.140812435722</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="M8" t="n">
-        <v>2566.875559553125</v>
+        <v>1742.452134990904</v>
       </c>
       <c r="N8" t="n">
-        <v>2566.875559553125</v>
+        <v>2632.186882108307</v>
       </c>
       <c r="O8" t="n">
-        <v>3412.020209703937</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P8" t="n">
-        <v>3412.020209703937</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q8" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
         <v>3594.887867141022</v>
@@ -4846,10 +4846,10 @@
         <v>2257.359328081804</v>
       </c>
       <c r="X8" t="n">
-        <v>2123.360964215735</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y8" t="n">
-        <v>2122.064098211029</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L9" t="n">
-        <v>908.6965654257266</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M9" t="n">
-        <v>1798.431312543129</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="N9" t="n">
-        <v>1880.58538792333</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.58538792333</v>
+        <v>968.8256783162039</v>
       </c>
       <c r="P9" t="n">
-        <v>1880.58538792333</v>
+        <v>1685.023395354702</v>
       </c>
       <c r="Q9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R9" t="n">
         <v>1880.58538792333</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>486.1427916045499</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C10" t="n">
-        <v>486.1427916045499</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D10" t="n">
-        <v>486.1427916045499</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>486.1427916045499</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
         <v>481.7195638001579</v>
@@ -4986,28 +4986,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2035.137123962257</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T10" t="n">
-        <v>1791.797776188157</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U10" t="n">
-        <v>1511.613327688461</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V10" t="n">
-        <v>1229.90186029649</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W10" t="n">
-        <v>955.0494564690027</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X10" t="n">
-        <v>712.4855599148078</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y10" t="n">
-        <v>486.1427916045499</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2177.531292217814</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C11" t="n">
-        <v>1750.630562231114</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="D11" t="n">
-        <v>1327.337941416114</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="E11" t="n">
-        <v>901.3610015639716</v>
+        <v>594.4767550607693</v>
       </c>
       <c r="F11" t="n">
-        <v>476.2368197533718</v>
+        <v>169.3525732501695</v>
       </c>
       <c r="G11" t="n">
         <v>71.89775734282044</v>
@@ -5041,25 +5041,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>787.4060653183195</v>
+        <v>651.0536142441048</v>
       </c>
       <c r="L11" t="n">
-        <v>1677.140812435722</v>
+        <v>1540.788361361508</v>
       </c>
       <c r="M11" t="n">
-        <v>2566.875559553125</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="N11" t="n">
-        <v>3456.610306670528</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O11" t="n">
-        <v>3594.887867141022</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P11" t="n">
-        <v>3594.887867141022</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q11" t="n">
         <v>3594.887867141022</v>
@@ -5068,25 +5068,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>3373.962296185655</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U11" t="n">
-        <v>3115.607386782067</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V11" t="n">
-        <v>2758.117971908317</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W11" t="n">
-        <v>2758.117971908317</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X11" t="n">
-        <v>2346.397973076064</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y11" t="n">
-        <v>2177.531292217814</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K12" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L12" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="M12" t="n">
-        <v>961.6325044602233</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="N12" t="n">
-        <v>1851.367251577626</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="O12" t="n">
-        <v>1880.58538792333</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="P12" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q12" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R12" t="n">
         <v>1880.58538792333</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>486.1427916045499</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>486.1427916045499</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>486.1427916045499</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>486.1427916045499</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
         <v>71.89775734282044</v>
@@ -5223,28 +5223,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2177.531292217814</v>
+        <v>1754.238671402814</v>
       </c>
       <c r="C14" t="n">
-        <v>1750.630562231114</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="D14" t="n">
         <v>1327.337941416114</v>
@@ -5278,19 +5278,19 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>787.4060653183195</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M14" t="n">
-        <v>1540.788361361508</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N14" t="n">
-        <v>2430.523108478911</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O14" t="n">
         <v>2430.523108478911</v>
@@ -5305,25 +5305,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U14" t="n">
-        <v>3336.532957737434</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V14" t="n">
-        <v>3336.532957737434</v>
+        <v>2991.144304571706</v>
       </c>
       <c r="W14" t="n">
-        <v>3336.532957737434</v>
+        <v>2991.144304571706</v>
       </c>
       <c r="X14" t="n">
-        <v>3002.716926554453</v>
+        <v>2579.424305739454</v>
       </c>
       <c r="Y14" t="n">
-        <v>2597.379656509343</v>
+        <v>2174.087035694344</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L15" t="n">
-        <v>71.89775734282044</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="M15" t="n">
-        <v>961.6325044602233</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.367251577626</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.58538792333</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="P15" t="n">
-        <v>1880.58538792333</v>
+        <v>1657.724533191161</v>
       </c>
       <c r="Q15" t="n">
         <v>1880.58538792333</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
         <v>71.89775734282044</v>
@@ -5463,25 +5463,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5515,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1125.509546729146</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C19" t="n">
-        <v>953.5369836080615</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D19" t="n">
-        <v>790.2202107348322</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E19" t="n">
-        <v>624.0120048876857</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>452.1502306622461</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>285.8932609564783</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.018283751469</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W19" t="n">
-        <v>1542.018283751469</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X19" t="n">
-        <v>1542.018283751469</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y19" t="n">
-        <v>1315.675515441211</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2184.700581617281</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5840,16 +5840,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>810.671283034784</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.328514724526</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,19 +5977,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
@@ -5998,28 +5998,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251596</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6068,22 +6068,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
         <v>1364.825557038856</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1822.202732251165</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1822.202732251165</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596601</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747413</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6308,16 +6308,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
         <v>730.647150085061</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1064.78153311813</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1307.345429672325</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.78153311813</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1064.78153311813</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6545,19 +6545,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1844.556469506584</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1844.556469506584</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1844.556469506584</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.8188681099</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6785,19 +6785,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1785.357631525569</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1785.357631525569</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6946,25 +6946,25 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
         <v>4789.842805209199</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7183,28 +7183,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3723.256622122471</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>3551.284059001387</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3387.967286128157</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3221.759080281011</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3049.897306055571</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.000622810561</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>4701.661275036461</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>4421.476826536766</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4139.765359144794</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>4139.765359144794</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>4139.765359144794</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>3913.422590834536</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2510.296542000307</v>
+        <v>2049.422730891637</v>
       </c>
       <c r="C41" t="n">
-        <v>2083.395812013608</v>
+        <v>1622.522000904936</v>
       </c>
       <c r="D41" t="n">
-        <v>1660.103191198608</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.126251346466</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F41" t="n">
-        <v>809.0020695358658</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6630071253144</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H41" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>1677.140812435722</v>
+        <v>1996.873840865691</v>
       </c>
       <c r="M41" t="n">
-        <v>2566.875559553125</v>
+        <v>1996.873840865691</v>
       </c>
       <c r="N41" t="n">
-        <v>3456.610306670528</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="O41" t="n">
-        <v>3594.887867141022</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P41" t="n">
         <v>3594.887867141022</v>
@@ -7444,19 +7444,19 @@
         <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3336.532957737434</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>3335.482176336947</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>3335.482176336947</v>
+        <v>3286.328364060529</v>
       </c>
       <c r="X41" t="n">
-        <v>3335.482176336947</v>
+        <v>2874.608365228276</v>
       </c>
       <c r="Y41" t="n">
-        <v>2930.144906291837</v>
+        <v>2469.271095183167</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K42" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L42" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M42" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N42" t="n">
-        <v>1233.329993739814</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="O42" t="n">
-        <v>1798.566077838627</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="P42" t="n">
-        <v>1798.566077838627</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q42" t="n">
         <v>1798.566077838627</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.1272901696723</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>238.1547270485883</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>238.1547270485883</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>238.1547270485883</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>238.1547270485883</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
         <v>71.89775734282044</v>
@@ -7593,28 +7593,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1752.407110407214</v>
+        <v>1530.158259084881</v>
       </c>
       <c r="C44" t="n">
-        <v>1325.506380420514</v>
+        <v>1103.257529098181</v>
       </c>
       <c r="D44" t="n">
-        <v>902.2137596055143</v>
+        <v>1103.257529098181</v>
       </c>
       <c r="E44" t="n">
-        <v>476.2368197533718</v>
+        <v>677.2805892460386</v>
       </c>
       <c r="F44" t="n">
         <v>476.2368197533718</v>
@@ -7654,22 +7654,22 @@
         <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>2039.744271252618</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M44" t="n">
-        <v>2929.479018370021</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N44" t="n">
-        <v>3477.331532259119</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O44" t="n">
-        <v>3477.331532259119</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P44" t="n">
-        <v>3477.331532259119</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q44" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
         <v>3594.887867141022</v>
@@ -7678,22 +7678,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3594.887867141022</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U44" t="n">
-        <v>3336.532957737434</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V44" t="n">
-        <v>2979.043542863684</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W44" t="n">
-        <v>2979.043542863684</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X44" t="n">
-        <v>2567.323544031431</v>
+        <v>1950.006623376411</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.255474698744</v>
+        <v>1950.006623376411</v>
       </c>
     </row>
     <row r="45">
@@ -7730,16 +7730,16 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K45" t="n">
-        <v>71.89775734282044</v>
+        <v>154.0518327230212</v>
       </c>
       <c r="L45" t="n">
-        <v>71.89775734282044</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="M45" t="n">
-        <v>961.6325044602233</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N45" t="n">
-        <v>1851.367251577626</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O45" t="n">
         <v>1880.58538792333</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1055.310311607333</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>883.3377484862492</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>720.0209756130199</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>553.8127697658734</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>381.9509955404339</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>215.694025834666</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
         <v>71.89775734282044</v>
@@ -7830,28 +7830,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.137123962257</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.137123962257</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1989.235349011339</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1714.382945183852</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>1471.819048629657</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>1245.476280319399</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>937.0340092178783</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>175.0140989470777</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>709.7055120839691</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>482.1725369225717</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>656.0343783945846</v>
       </c>
       <c r="O3" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>937.0340092178783</v>
+        <v>314.2943680330167</v>
       </c>
       <c r="M5" t="n">
-        <v>103.4022957834533</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8297,10 +8297,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,13 +8309,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>281.4457336203087</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P6" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>937.0340092178783</v>
       </c>
       <c r="M8" t="n">
-        <v>936.1532296846872</v>
+        <v>459.8718403881035</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
@@ -8473,10 +8473,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8394800966024</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8537,25 +8537,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>104.326942738997</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>137.4366165555695</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>254.5043968396465</v>
       </c>
       <c r="L11" t="n">
         <v>937.0340092178783</v>
@@ -8701,16 +8701,16 @@
         <v>936.1532296846872</v>
       </c>
       <c r="N11" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>177.065262861573</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>478.0786426274547</v>
       </c>
       <c r="M14" t="n">
-        <v>798.4234811248743</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>247.8590127659173</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>716.4444307130248</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9488,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>238.1216346371733</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>426.8993572042261</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,10 +9731,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9877,16 +9877,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9956,7 +9956,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9968,7 +9968,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>61.41381912716452</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10193,22 +10193,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>186.3697998820327</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.685833629606</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10433,10 +10433,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>281.3706244104145</v>
+        <v>657.7881306933709</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10448,7 +10448,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10919,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>937.0340092178783</v>
+        <v>893.7305441805782</v>
       </c>
       <c r="M41" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>936.0015896197015</v>
       </c>
       <c r="O41" t="n">
-        <v>177.065262861573</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11138,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11150,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>594.1174292159724</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11302,25 +11302,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>937.0340092178783</v>
+        <v>478.0786426274547</v>
       </c>
       <c r="M44" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>590.6660005002013</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,19 +11378,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>105.3831483587887</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
         <v>921.8187472975834</v>
       </c>
       <c r="N45" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>303.8154040381703</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>234.1058832949909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>115.3033752765337</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>77.12492797277895</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>59.37454630891068</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.7855238263079</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.53473220669966</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>22.13019988286487</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>20.72439720668925</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>22.13019988286467</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>58.60684960120449</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>71.98949189919249</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>40.3653442255882</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>50.57148346320943</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>352.8742471385306</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>86.953528152969</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113.0089626044162</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>221.8396081947536</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.16650870529827</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>233.4515955166426</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674701.8370844846</v>
+        <v>674701.8370844848</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674701.8370844845</v>
+        <v>674701.8370844846</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674701.8370844845</v>
+        <v>674701.8370844846</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674701.8370844848</v>
+        <v>674701.8370844846</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>533755.5509994593</v>
+        <v>533755.5509994595</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>533755.5509994596</v>
+        <v>533755.5509994595</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>334904.5341064188</v>
       </c>
       <c r="E2" t="n">
+        <v>255659.275763954</v>
+      </c>
+      <c r="F2" t="n">
         <v>255659.2757639539</v>
-      </c>
-      <c r="F2" t="n">
-        <v>255659.2757639541</v>
       </c>
       <c r="G2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="H2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="I2" t="n">
         <v>323167.4818040322</v>
       </c>
       <c r="J2" t="n">
+        <v>323167.4818040323</v>
+      </c>
+      <c r="K2" t="n">
+        <v>323167.4818040323</v>
+      </c>
+      <c r="L2" t="n">
         <v>323167.4818040322</v>
       </c>
-      <c r="K2" t="n">
-        <v>323167.4818040322</v>
-      </c>
-      <c r="L2" t="n">
-        <v>323167.4818040321</v>
-      </c>
       <c r="M2" t="n">
-        <v>323167.4818040321</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040321</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="O2" t="n">
+        <v>255659.2757639539</v>
+      </c>
+      <c r="P2" t="n">
         <v>255659.275763954</v>
-      </c>
-      <c r="P2" t="n">
-        <v>255659.2757639539</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>235145.2102775614</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>90603.64080726329</v>
       </c>
       <c r="C4" t="n">
+        <v>90603.64080726332</v>
+      </c>
+      <c r="D4" t="n">
         <v>90603.64080726329</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90603.64080726331</v>
       </c>
       <c r="E4" t="n">
         <v>11941.75496939596</v>
       </c>
       <c r="F4" t="n">
-        <v>11941.75496939596</v>
+        <v>11941.75496939597</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
         <v>11941.75496939596</v>
@@ -26484,28 +26484,28 @@
         <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
         <v>54642.29558054353</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145151.4039563632</v>
+        <v>-145151.4039563631</v>
       </c>
       <c r="C6" t="n">
-        <v>156030.997718612</v>
+        <v>156030.9977186119</v>
       </c>
       <c r="D6" t="n">
         <v>156030.997718612</v>
       </c>
       <c r="E6" t="n">
-        <v>189075.2252140144</v>
+        <v>188730.6806125255</v>
       </c>
       <c r="F6" t="n">
-        <v>189075.2252140146</v>
+        <v>188730.6806125255</v>
       </c>
       <c r="G6" t="n">
-        <v>126131.9661760555</v>
+        <v>126080.9355138712</v>
       </c>
       <c r="H6" t="n">
-        <v>230301.2459576752</v>
+        <v>230250.2152954908</v>
       </c>
       <c r="I6" t="n">
-        <v>230301.2459576751</v>
+        <v>230250.2152954908</v>
       </c>
       <c r="J6" t="n">
-        <v>-4843.964319886232</v>
+        <v>-4894.994982070449</v>
       </c>
       <c r="K6" t="n">
-        <v>230301.2459576751</v>
+        <v>230250.2152954909</v>
       </c>
       <c r="L6" t="n">
-        <v>230301.245957675</v>
+        <v>230250.2152954908</v>
       </c>
       <c r="M6" t="n">
-        <v>230301.245957675</v>
+        <v>230250.2152954909</v>
       </c>
       <c r="N6" t="n">
-        <v>230301.245957675</v>
+        <v>230250.2152954909</v>
       </c>
       <c r="O6" t="n">
-        <v>189075.2252140145</v>
+        <v>188730.6806125255</v>
       </c>
       <c r="P6" t="n">
-        <v>189075.2252140144</v>
+        <v>188730.6806125255</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876012</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852554</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876012</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.2432624039329</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>179.1933612282743</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>131.2378753368759</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>230.0570341340378</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>202.2434271348608</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.9844036340533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>117.2205539080145</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>274.9444186165218</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.9444186165217</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>137.7344761126317</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>672.1301502737379</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="O3" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
+        <v>275.9823256003937</v>
+      </c>
+      <c r="M5" t="n">
         <v>898.7219667852554</v>
       </c>
-      <c r="M5" t="n">
-        <v>65.9710328840215</v>
-      </c>
       <c r="N5" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>258.2738438980865</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P6" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="M8" t="n">
+        <v>422.4405774886716</v>
+      </c>
+      <c r="N8" t="n">
         <v>898.7219667852554</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
@@ -35193,10 +35193,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>184.7148054920043</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>82.98391452545532</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>114.689578266591</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>218.7397960448372</v>
       </c>
       <c r="L11" t="n">
         <v>898.7219667852554</v>
@@ -35421,16 +35421,16 @@
         <v>898.7219667852554</v>
       </c>
       <c r="N11" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>139.6743035055489</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="M14" t="n">
-        <v>760.9922182254426</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>225.1119744769388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>679.0534713570007</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>200.7306752811492</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36597,16 +36597,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,7 +36688,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>38.24192940494229</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.3737911969831</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>258.2738438980865</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>596.4494207761006</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>898.7219667852554</v>
+        <v>855.4185017479554</v>
       </c>
       <c r="M41" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="O41" t="n">
-        <v>139.6743035055489</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>570.9455394937502</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38022,25 +38022,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>898.7219667852554</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="M44" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>553.3863776657553</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>82.98391452545533</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="N45" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
